--- a/solutions-LUOGU/LUOGU-错题集.xlsx
+++ b/solutions-LUOGU/LUOGU-错题集.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Code_Repositories\Algorithm-solutions\solutions-LUOGU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41711596-008E-403F-B4EF-04B072847D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53E241D-8597-4F4F-8054-CDCB85FB42D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12315" yWindow="952" windowWidth="11430" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LUOGU" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +156,30 @@
   </si>
   <si>
     <t>18m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1598</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟 字符串 排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,10 +551,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -702,6 +726,57 @@
         <v>11</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/solutions-LUOGU/LUOGU-错题集.xlsx
+++ b/solutions-LUOGU/LUOGU-错题集.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Code_Repositories\Algorithm-solutions\solutions-LUOGU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53E241D-8597-4F4F-8054-CDCB85FB42D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4EF542-E346-4C9E-BE70-C985696FC273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12315" yWindow="952" windowWidth="11430" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6818" yWindow="1485" windowWidth="14707" windowHeight="12503" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LUOGU" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,22 @@
   </si>
   <si>
     <t>30m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P5740</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普及/提高-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,17 +567,17 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.06640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.9296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.1328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.3984375" style="3" customWidth="1"/>
     <col min="4" max="5" width="9.06640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="130.53125" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.06640625" style="2"/>
@@ -777,6 +793,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/solutions-LUOGU/LUOGU-错题集.xlsx
+++ b/solutions-LUOGU/LUOGU-错题集.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Code_Repositories\Algorithm-solutions\solutions-LUOGU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4EF542-E346-4C9E-BE70-C985696FC273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC08D4B-003B-4EF4-A99B-232BEA060166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6818" yWindow="1485" windowWidth="14707" windowHeight="12503" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9833" yWindow="368" windowWidth="12525" windowHeight="12502" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LUOGU" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P5740</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>普及/提高-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,6 +192,30 @@
   </si>
   <si>
     <t>35m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P5761</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1563</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本题用模拟的方法就能解决。不过这道题卡了1h左右，很简单的一个点:判断小人朝向及向左向右的时候，分支结构出问题了，我用了两个if，等于一次循环进行了两次判断。引以为戒！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4924</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python3会有几个测试点超时，没有想到新方法，晚点想到了过来补充！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,10 +587,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -795,19 +815,59 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="E13" s="3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/solutions-LUOGU/LUOGU-错题集.xlsx
+++ b/solutions-LUOGU/LUOGU-错题集.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Code_Repositories\Algorithm-solutions\solutions-LUOGU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC08D4B-003B-4EF4-A99B-232BEA060166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6AA8A8-C99D-4499-824C-263CF6FBD3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9833" yWindow="368" windowWidth="12525" windowHeight="12502" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4110" yWindow="1148" windowWidth="12525" windowHeight="12502" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LUOGU" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +216,38 @@
   </si>
   <si>
     <t>python3会有几个测试点超时，没有想到新方法，晚点想到了过来补充！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1518</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟问题，地图，坐标移动…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1067</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多项式细节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1786</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本题是一道模拟题，需要进行两趟排序，我刚做的时候不太会这个两趟排序的实现，所以就看了别人的题解，发现是用python内置的sort函数，确实方便很多，不过之后可以试着不用内置函数解一下这个题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,10 +619,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -870,6 +902,66 @@
         <v>47</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/solutions-LUOGU/LUOGU-错题集.xlsx
+++ b/solutions-LUOGU/LUOGU-错题集.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Code_Repositories\Algorithm-solutions\solutions-LUOGU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6AA8A8-C99D-4499-824C-263CF6FBD3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948AD643-38D8-4733-837C-0A4CF17765DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="1148" windowWidth="12525" windowHeight="12502" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5310" yWindow="315" windowWidth="12525" windowHeight="12503" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LUOGU" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,22 @@
   </si>
   <si>
     <t>本题是一道模拟题，需要进行两趟排序，我刚做的时候不太会这个两趟排序的实现，所以就看了别人的题解，发现是用python内置的sort函数，确实方便很多，不过之后可以试着不用内置函数解一下这个题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1177</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本题本质要求就是一个快速排序的实现，这个快速排序还是没理解透彻，之后得加强学习一下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,10 +635,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -962,6 +978,26 @@
         <v>55</v>
       </c>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/solutions-LUOGU/LUOGU-错题集.xlsx
+++ b/solutions-LUOGU/LUOGU-错题集.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Code_Repositories\Algorithm-solutions\solutions-LUOGU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948AD643-38D8-4733-837C-0A4CF17765DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BFA72C-D3FA-4031-BB92-6519628A383C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="315" windowWidth="12525" windowHeight="12503" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LUOGU" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,6 +264,18 @@
   </si>
   <si>
     <t>本题本质要求就是一个快速排序的实现，这个快速排序还是没理解透彻，之后得加强学习一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过排序实现字符串拼接所得值最大，比较有意思的题，Mark一下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,10 +647,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -998,6 +1010,26 @@
         <v>59</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/solutions-LUOGU/LUOGU-错题集.xlsx
+++ b/solutions-LUOGU/LUOGU-错题集.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Code_Repositories\Algorithm-solutions\solutions-LUOGU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BFA72C-D3FA-4031-BB92-6519628A383C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F061B6CD-1426-4088-995C-7F1938343EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8513" yWindow="0" windowWidth="12525" windowHeight="12503" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LUOGU" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="67">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,6 +276,22 @@
   </si>
   <si>
     <t>通过排序实现字符串拼接所得值最大，比较有意思的题，Mark一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索 DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度优先搜索和广度优先搜索还是有点迷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,10 +663,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1030,6 +1046,26 @@
         <v>62</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
